--- a/Project/签到数据表.xlsx
+++ b/Project/签到数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\face_recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\face_recognition\HBNU_AI_class\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C80B0-DCDF-4B29-9F62-D359535A17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344DCBA7-5646-48D4-887C-E82FE295565D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1950" windowWidth="16755" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="4275" windowWidth="21855" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>128组浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -305,13 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,12 +331,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -611,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -628,36 +638,36 @@
     <col min="16" max="16" width="15.5" style="5" customWidth="1"/>
     <col min="17" max="17" width="10.625" style="5" customWidth="1"/>
     <col min="18" max="19" width="19.75" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9" style="16"/>
+    <col min="20" max="20" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="K1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="18"/>
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -696,11 +706,17 @@
       <c r="R2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="10" t="s">
         <v>5</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
@@ -728,12 +744,14 @@
       <c r="R3" s="5">
         <v>2</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -757,9 +775,11 @@
       <c r="R4" s="5">
         <v>0</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -783,9 +803,11 @@
       <c r="R5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -803,9 +825,11 @@
       <c r="R6" s="5">
         <v>1</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -817,6 +841,8 @@
       <c r="P7" s="5">
         <v>2019012608</v>
       </c>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -828,6 +854,8 @@
       <c r="P8" s="5">
         <v>2019012609</v>
       </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -839,6 +867,8 @@
       <c r="P9" s="5">
         <v>2019012610</v>
       </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -850,6 +880,8 @@
       <c r="P10" s="5">
         <v>2019012611</v>
       </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -861,6 +893,8 @@
       <c r="P11" s="5">
         <v>2019012612</v>
       </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -869,6 +903,8 @@
       <c r="P12" s="5">
         <v>2019012613</v>
       </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -877,6 +913,8 @@
       <c r="P13" s="5">
         <v>2019012614</v>
       </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -885,6 +923,8 @@
       <c r="P14" s="5">
         <v>2019012615</v>
       </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -893,6 +933,8 @@
       <c r="P15" s="5">
         <v>2019012616</v>
       </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
